--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/137.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/137.xlsx
@@ -479,13 +479,13 @@
         <v>-0.07081774514961686</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.60402138563164</v>
+        <v>-1.605200325953494</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04284389933208384</v>
+        <v>-0.04286121354241815</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1454416136967053</v>
+        <v>-0.1479002315641769</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06937927335918237</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.585497541602613</v>
+        <v>-1.5874178449306</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07362384324911879</v>
+        <v>-0.07299580961971983</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1191098478164661</v>
+        <v>-0.1220091910379019</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.07293362391329071</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.634307874554147</v>
+        <v>-1.635981843889651</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1215007828617218</v>
+        <v>-0.1208239546395625</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1146821320282472</v>
+        <v>-0.1173264841520324</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.08227877379414515</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.728575879728845</v>
+        <v>-1.72988861167601</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1481709628530407</v>
+        <v>-0.1478404188375675</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1254311086076096</v>
+        <v>-0.1282580469494657</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.09242048972654422</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760361621864391</v>
+        <v>-1.759989366342204</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1090140891724435</v>
+        <v>-0.1092375998876682</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1156784861320306</v>
+        <v>-0.118277191701298</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.09484353395912581</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.621186851158985</v>
+        <v>-1.620017354951858</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0445595801743016</v>
+        <v>-0.04472327816291687</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1167566892301215</v>
+        <v>-0.119015406669188</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08340188767169976</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331822323937309</v>
+        <v>-1.332160738048388</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.009769035536192494</v>
+        <v>-0.008508246220030642</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1113688217779093</v>
+        <v>-0.1143153855729842</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.05315166683072806</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9102197282777983</v>
+        <v>-0.91184332900142</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0104647519878074</v>
+        <v>-0.006869692314756626</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07123290820386305</v>
+        <v>-0.07414641759739063</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.002065186586009726</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3825723163780178</v>
+        <v>-0.3865718989652429</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05782226529038119</v>
+        <v>-0.0525807816164499</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02410047963563525</v>
+        <v>-0.0267243695108435</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.07278092347828954</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1830876573011743</v>
+        <v>0.1764752029725901</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1182409892615081</v>
+        <v>-0.1103567274829129</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05857959676804728</v>
+        <v>0.0554394286210524</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1705482287158173</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8632323377490506</v>
+        <v>0.8545295860273791</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2479055364360161</v>
+        <v>-0.2381954124767122</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1383697740650217</v>
+        <v>0.1352390500327547</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2896842915448058</v>
       </c>
       <c r="E13" t="n">
-        <v>1.557758830908251</v>
+        <v>1.546468391751161</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.453713258603445</v>
+        <v>-0.4416484020386752</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2569343383961173</v>
+        <v>0.2540082368496194</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4239410954619802</v>
       </c>
       <c r="E14" t="n">
-        <v>2.282520657368517</v>
+        <v>2.268897521873659</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6852483233085336</v>
+        <v>-0.6717951818787766</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3778898377724687</v>
+        <v>0.3745481951779474</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.567817150862053</v>
       </c>
       <c r="E15" t="n">
-        <v>3.01565311751586</v>
+        <v>3.00024819237569</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9335954862482347</v>
+        <v>-0.9187076263894122</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4899332408840156</v>
+        <v>0.4866891874750148</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7098370201279103</v>
       </c>
       <c r="E16" t="n">
-        <v>3.636126733075227</v>
+        <v>3.620946892669403</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.219066677173373</v>
+        <v>-1.200830878643544</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6363784059107103</v>
+        <v>0.6312596957282404</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8457852800909255</v>
       </c>
       <c r="E17" t="n">
-        <v>4.230515703756399</v>
+        <v>4.21450635527365</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.474521323455308</v>
+        <v>-1.453956763635514</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7861652135319263</v>
+        <v>0.7806467024926461</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9811592119751014</v>
       </c>
       <c r="E18" t="n">
-        <v>4.758816333591519</v>
+        <v>4.743313819265829</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.716028586303397</v>
+        <v>-1.694676229913392</v>
       </c>
       <c r="G18" t="n">
-        <v>0.923418106890225</v>
+        <v>0.9167285256246971</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.123753046914082</v>
       </c>
       <c r="E19" t="n">
-        <v>5.18892650260166</v>
+        <v>5.173200477560745</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.006213964496831</v>
+        <v>-1.982521828683013</v>
       </c>
       <c r="G19" t="n">
-        <v>1.068684331595065</v>
+        <v>1.061963269947112</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.271546121184892</v>
       </c>
       <c r="E20" t="n">
-        <v>5.526729894262243</v>
+        <v>5.510608790421881</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.260284260961582</v>
+        <v>-2.235809837644477</v>
       </c>
       <c r="G20" t="n">
-        <v>1.219639061404287</v>
+        <v>1.212631528276256</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.410892024418486</v>
       </c>
       <c r="E21" t="n">
-        <v>5.811356623928804</v>
+        <v>5.795403940134421</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.483103981792028</v>
+        <v>-2.457530893128256</v>
       </c>
       <c r="G21" t="n">
-        <v>1.356397712758497</v>
+        <v>1.349901735844889</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.526187567509579</v>
       </c>
       <c r="E22" t="n">
-        <v>6.016903058922097</v>
+        <v>6.00175627291782</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.688434776165703</v>
+        <v>-2.663243387138846</v>
       </c>
       <c r="G22" t="n">
-        <v>1.472075526021127</v>
+        <v>1.465255301168531</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.607625667004782</v>
       </c>
       <c r="E23" t="n">
-        <v>6.157253621911115</v>
+        <v>6.140934191661469</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.808327025625616</v>
+        <v>-2.783934451302819</v>
       </c>
       <c r="G23" t="n">
-        <v>1.571290673294073</v>
+        <v>1.564308324471983</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.654049603529198</v>
       </c>
       <c r="E24" t="n">
-        <v>6.261784231756694</v>
+        <v>6.245121665338605</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.88087986300285</v>
+        <v>-2.857692200317409</v>
       </c>
       <c r="G24" t="n">
-        <v>1.618848087025052</v>
+        <v>1.612100267052036</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.667155968769553</v>
       </c>
       <c r="E25" t="n">
-        <v>6.279249547926646</v>
+        <v>6.26314733231574</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.959056670700491</v>
+        <v>-2.935758039666998</v>
       </c>
       <c r="G25" t="n">
-        <v>1.66888458087208</v>
+        <v>1.663044969932054</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.649877912608175</v>
       </c>
       <c r="E26" t="n">
-        <v>6.267371999637311</v>
+        <v>6.25209771808421</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.020105002320138</v>
+        <v>-2.996941736931077</v>
       </c>
       <c r="G26" t="n">
-        <v>1.687424952101881</v>
+        <v>1.681601081353068</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.605341002882233</v>
       </c>
       <c r="E27" t="n">
-        <v>6.170755557933632</v>
+        <v>6.156378467279672</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.033923316186037</v>
+        <v>-3.011076428640358</v>
       </c>
       <c r="G27" t="n">
-        <v>1.693807599638755</v>
+        <v>1.688152148935921</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.540592604635581</v>
       </c>
       <c r="E28" t="n">
-        <v>6.005571695267853</v>
+        <v>5.992351508668048</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.044002547629286</v>
+        <v>-3.020931362358821</v>
       </c>
       <c r="G28" t="n">
-        <v>1.679263662957936</v>
+        <v>1.67400329105455</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.46263548087832</v>
       </c>
       <c r="E29" t="n">
-        <v>5.834266472239335</v>
+        <v>5.822080416202225</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.000347127300011</v>
+        <v>-2.978333682879061</v>
       </c>
       <c r="G29" t="n">
-        <v>1.642223844995489</v>
+        <v>1.637068932373229</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.376012316408652</v>
       </c>
       <c r="E30" t="n">
-        <v>5.640402407164336</v>
+        <v>5.629351218913684</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.971057779490848</v>
+        <v>-2.949873843146823</v>
       </c>
       <c r="G30" t="n">
-        <v>1.572088700988573</v>
+        <v>1.56746265879107</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.284715007878217</v>
       </c>
       <c r="E31" t="n">
-        <v>5.400196071120003</v>
+        <v>5.390163273240832</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.869162864663887</v>
+        <v>-2.84952540210654</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497500656887497</v>
+        <v>1.493019424449154</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.192457847771815</v>
       </c>
       <c r="E32" t="n">
-        <v>5.168708226988553</v>
+        <v>5.158472380642734</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.807675381709397</v>
+        <v>-2.787841166761887</v>
       </c>
       <c r="G32" t="n">
-        <v>1.424063220764092</v>
+        <v>1.419604024593447</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.103405457541361</v>
       </c>
       <c r="E33" t="n">
-        <v>4.873792134326049</v>
+        <v>4.864116638787414</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.682795852663643</v>
+        <v>-2.664222427032295</v>
       </c>
       <c r="G33" t="n">
-        <v>1.349945808380285</v>
+        <v>1.346131960049374</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.019002617916455</v>
       </c>
       <c r="E34" t="n">
-        <v>4.612553754782895</v>
+        <v>4.604387743581587</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.606086817796615</v>
+        <v>-2.587737689890052</v>
       </c>
       <c r="G34" t="n">
-        <v>1.249148771890432</v>
+        <v>1.245380570114038</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9418775237384113</v>
       </c>
       <c r="E35" t="n">
-        <v>4.297271428709882</v>
+        <v>4.290899799306858</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.531876538284652</v>
+        <v>-2.514685888451366</v>
       </c>
       <c r="G35" t="n">
-        <v>1.157466880132031</v>
+        <v>1.153778953330823</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8707942687798367</v>
       </c>
       <c r="E36" t="n">
-        <v>3.957524123434493</v>
+        <v>3.951536554697065</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.435362407823857</v>
+        <v>-2.418899741834173</v>
       </c>
       <c r="G36" t="n">
-        <v>1.076902285427376</v>
+        <v>1.074464129808482</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8050196467503732</v>
       </c>
       <c r="E37" t="n">
-        <v>3.673849675336319</v>
+        <v>3.668181632480515</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.366430601435175</v>
+        <v>-2.350541665415206</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9904618773429065</v>
+        <v>0.9876837335938108</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.74196001783863</v>
       </c>
       <c r="E38" t="n">
-        <v>3.372360478823264</v>
+        <v>3.368848842163642</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.298362144534527</v>
+        <v>-2.282517281049954</v>
       </c>
       <c r="G38" t="n">
-        <v>0.900662512453581</v>
+        <v>0.8985092542956415</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6812218051516216</v>
       </c>
       <c r="E39" t="n">
-        <v>3.053681419486484</v>
+        <v>3.051314094728048</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.220070433441031</v>
+        <v>-2.205444647765905</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8121365290333876</v>
+        <v>0.8104649207265663</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6209576191233432</v>
       </c>
       <c r="E40" t="n">
-        <v>2.774463019520713</v>
+        <v>2.770990733339123</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.146434670908342</v>
+        <v>-2.131447647844878</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7450392419305819</v>
+        <v>0.7437847486909053</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5613895803076089</v>
       </c>
       <c r="E41" t="n">
-        <v>2.477211082482199</v>
+        <v>2.4744770112685</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.085725540409335</v>
+        <v>-2.071840330730781</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6864747124843472</v>
+        <v>0.6858277906254927</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5019441524951292</v>
       </c>
       <c r="E42" t="n">
-        <v>2.200457596460384</v>
+        <v>2.198738767579924</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.999483458734149</v>
+        <v>-1.986378962539761</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6143043617535894</v>
+        <v>0.6143688965375628</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4440311537398566</v>
       </c>
       <c r="E43" t="n">
-        <v>1.94758040648958</v>
+        <v>1.945973332966732</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.936615561010279</v>
+        <v>-1.923412688620808</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5442542147792236</v>
+        <v>0.5437725649281056</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.388416837507953</v>
       </c>
       <c r="E44" t="n">
-        <v>1.745822635521257</v>
+        <v>1.743850389562268</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.8846540417779</v>
+        <v>-1.872176005193789</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4777220005409648</v>
+        <v>0.4772734050913942</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3368899775561609</v>
       </c>
       <c r="E45" t="n">
-        <v>1.532623319560201</v>
+        <v>1.531955935452769</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.799408314206498</v>
+        <v>-1.787134113098595</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4268371103875562</v>
+        <v>0.4263523124981956</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2900979125305706</v>
       </c>
       <c r="E46" t="n">
-        <v>1.336872005558762</v>
+        <v>1.335593902032266</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.739711278002487</v>
+        <v>-1.727947059089886</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3746284701531337</v>
+        <v>0.3750912317747961</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2481512711830377</v>
       </c>
       <c r="E47" t="n">
-        <v>1.182067224978839</v>
+        <v>1.18146280163626</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.708203350241851</v>
+        <v>-1.696776758430768</v>
       </c>
       <c r="G47" t="n">
-        <v>0.32719855197098</v>
+        <v>0.3267546785787733</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2108024560977</v>
       </c>
       <c r="E48" t="n">
-        <v>1.005032572348787</v>
+        <v>1.005166363974098</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.645656552418725</v>
+        <v>-1.634123714316955</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561252925677688</v>
+        <v>0.2559490024261831</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1773025211762573</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8587211989474028</v>
+        <v>0.8587967518652252</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.595433537305823</v>
+        <v>-1.583819637219306</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2214433552490294</v>
+        <v>0.2214748356314555</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1464240666967833</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7590936586646758</v>
+        <v>0.7592919850739597</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.544810721336111</v>
+        <v>-1.532558556495907</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1795697245650672</v>
+        <v>0.1795288000679134</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1159452434991829</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6436503742511194</v>
+        <v>0.6439163834826193</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.507622158566701</v>
+        <v>-1.495089031313344</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1455614674302446</v>
+        <v>0.1454072135563571</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.0849224456547337</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5366186480217939</v>
+        <v>0.5361574604192528</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.463542540084235</v>
+        <v>-1.45153120016959</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1060252551414139</v>
+        <v>0.1062645060478516</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.05289334664935028</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4685549131785096</v>
+        <v>0.4671713503708863</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.423364915003475</v>
+        <v>-1.412364882374265</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07422377281465481</v>
+        <v>0.0741907184131075</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.02156992757417154</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3777765083957351</v>
+        <v>0.3749574401494855</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.372077862964574</v>
+        <v>-1.3599350924533</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04320772602942476</v>
+        <v>0.04362011903920553</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.00868203382166394</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2881975061833916</v>
+        <v>0.2842671804375038</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.340432208530824</v>
+        <v>-1.328434247778709</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008465975984075974</v>
+        <v>0.009304928175729241</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.03704995539980668</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2244938043061102</v>
+        <v>0.2200283120589801</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.320276106673008</v>
+        <v>-1.308513461779528</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008509820239151943</v>
+        <v>-0.008187146319285302</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.0633142336031208</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1486906174433903</v>
+        <v>0.1440913335709497</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.32722540109355</v>
+        <v>-1.315529652012725</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04447143510350875</v>
+        <v>-0.04405746807460668</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.08725888587685873</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0854087526906175</v>
+        <v>0.08072132374738404</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.307099205599039</v>
+        <v>-1.296083432778616</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07449899788056198</v>
+        <v>-0.07435261410228101</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1088728414900779</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04852948467854238</v>
+        <v>0.04314791330281533</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.317461760484122</v>
+        <v>-1.30643496952985</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09957627052112454</v>
+        <v>-0.09918748779816326</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1275696089236886</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.004637733200752251</v>
+        <v>-0.01125648360582164</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.32123547132744</v>
+        <v>-1.310857176251144</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1041472220493817</v>
+        <v>-0.1040889833418936</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1436796520968271</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.04281714100702173</v>
+        <v>-0.05020401274328586</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.301201355951525</v>
+        <v>-1.290994628959451</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.135300208498165</v>
+        <v>-0.1352057673508869</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1575316432779092</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.09679970079115012</v>
+        <v>-0.1041236117625622</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.326011832351027</v>
+        <v>-1.315501319668542</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1427925395155562</v>
+        <v>-0.1430081801351744</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1692252043833402</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1397373684011116</v>
+        <v>-0.1479993947688189</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.366018676357127</v>
+        <v>-1.355139056190696</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1617799321758064</v>
+        <v>-0.1617610439463508</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1787902797685795</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1938316835428523</v>
+        <v>-0.2033765354944197</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.407624723790468</v>
+        <v>-1.396255583677313</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1774162381268075</v>
+        <v>-0.1776665071670943</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1866846724905774</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2464558648252982</v>
+        <v>-0.2569829047085572</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.440416264144525</v>
+        <v>-1.429192720800091</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028476650696627</v>
+        <v>-0.2030412694215827</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1938417293533736</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3132178858552669</v>
+        <v>-0.3237024272222508</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.482253692388698</v>
+        <v>-1.471652673606737</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2086731098375965</v>
+        <v>-0.2091704998799275</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2006601460577462</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3001488050911073</v>
+        <v>-0.3116139603706615</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.528527493526256</v>
+        <v>-1.518120866105776</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.24173852951876</v>
+        <v>-0.2422799920964875</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2073620910029299</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3279302425820644</v>
+        <v>-0.3381377565836994</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.559855196097503</v>
+        <v>-1.548238147972744</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2520688170118565</v>
+        <v>-0.2525473188247319</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2137721657187906</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3561272211210449</v>
+        <v>-0.3660828920632718</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.61946330022116</v>
+        <v>-1.607339417939342</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2584199841663047</v>
+        <v>-0.2582405459864764</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2196304291747571</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3826226849898994</v>
+        <v>-0.3924728966509991</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.637289066769891</v>
+        <v>-1.625615353956764</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2688006402712828</v>
+        <v>-0.2685724074986942</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2245021582076655</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3897592876858768</v>
+        <v>-0.3987091604095924</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.675985539857507</v>
+        <v>-1.663387877820177</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2874984134132136</v>
+        <v>-0.2870608360974921</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2285642590212202</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3881301778953305</v>
+        <v>-0.3966802497622359</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.708877030425767</v>
+        <v>-1.695844939110958</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2850665538708041</v>
+        <v>-0.2846289765550825</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2311265975644347</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3492582016756887</v>
+        <v>-0.3569960796760029</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.733262521662518</v>
+        <v>-1.721071743568044</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2875975766178556</v>
+        <v>-0.2866279808391344</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2315929446745146</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3076348400320134</v>
+        <v>-0.315526971906215</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.765850226540367</v>
+        <v>-1.753356449765043</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2923778726892458</v>
+        <v>-0.291353186241279</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2294193473586294</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2447260178109888</v>
+        <v>-0.2516753122315313</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.784924977261849</v>
+        <v>-1.772875073878732</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2964057876206542</v>
+        <v>-0.2947357533329542</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2247383188736672</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1372189378070305</v>
+        <v>-0.1439447215123483</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.792957196837847</v>
+        <v>-1.781093027711043</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2796110035963759</v>
+        <v>-0.277564778738685</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2175937673352926</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.05113740608221717</v>
+        <v>-0.05695655477366581</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.779243555243514</v>
+        <v>-1.767388043221878</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.266184620491681</v>
+        <v>-0.2640297883146204</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2084151955536717</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08388667620031973</v>
+        <v>0.07849251267162227</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.783072356756078</v>
+        <v>-1.771325452053811</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2388187240487473</v>
+        <v>-0.2359209548464327</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1976059017309965</v>
       </c>
       <c r="E79" t="n">
-        <v>0.211563237224625</v>
+        <v>0.2061092609693181</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.81158492612888</v>
+        <v>-1.800255136493757</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2221530095924156</v>
+        <v>-0.2194519927802636</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.185514465045011</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3583531124388846</v>
+        <v>0.3524552627913709</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.76781460240375</v>
+        <v>-1.757954946627923</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1960242921788242</v>
+        <v>-0.1930950425940836</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1725471705984068</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4880617321487891</v>
+        <v>0.4827084931172454</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.745805093030603</v>
+        <v>-1.736860729373811</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1673015912533292</v>
+        <v>-0.1646304808044819</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1588178462843544</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6672039963822629</v>
+        <v>0.660692279277442</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.705991853376423</v>
+        <v>-1.697950976695259</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1412547228340454</v>
+        <v>-0.1387803647753608</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1444799087072262</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8400202777672293</v>
+        <v>0.834412047638035</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.636058183817034</v>
+        <v>-1.629421332192069</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1229929529887149</v>
+        <v>-0.1194797423099717</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1308971149675088</v>
       </c>
       <c r="E84" t="n">
-        <v>1.022239749382846</v>
+        <v>1.0156005367292</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.555650991024509</v>
+        <v>-1.550733755289566</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1071646167049152</v>
+        <v>-0.1034766899037076</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1197647348101323</v>
       </c>
       <c r="E85" t="n">
-        <v>1.169575809232197</v>
+        <v>1.162310136968273</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.450815808478959</v>
+        <v>-1.445764781118705</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08750354386074825</v>
+        <v>-0.08306795797692292</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1121804089800284</v>
       </c>
       <c r="E86" t="n">
-        <v>1.330967859834763</v>
+        <v>1.324303462875176</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.3335545319803</v>
+        <v>-1.329422731786886</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05741616835708561</v>
+        <v>-0.05294123199522776</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1084446096146067</v>
       </c>
       <c r="E87" t="n">
-        <v>1.472105432384432</v>
+        <v>1.464331351944328</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.202982562782362</v>
+        <v>-1.199720408153467</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03362329531950441</v>
+        <v>-0.02886975757317634</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.108637307539944</v>
       </c>
       <c r="E88" t="n">
-        <v>1.561961461962124</v>
+        <v>1.555717328107924</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.056699521725162</v>
+        <v>-1.054515570194357</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01946027126604083</v>
+        <v>-0.01487515356569192</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1127831443440948</v>
       </c>
       <c r="E89" t="n">
-        <v>1.667261767158019</v>
+        <v>1.660537557471822</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9103968054289446</v>
+        <v>-0.9097868730194406</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0046348134428301</v>
+        <v>0.009372610997945171</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1216554615505194</v>
       </c>
       <c r="E90" t="n">
-        <v>1.710972278156539</v>
+        <v>1.704639999231546</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7185545679152561</v>
+        <v>-0.7196910097208352</v>
       </c>
       <c r="G90" t="n">
-        <v>0.005768107210166596</v>
+        <v>0.01106153351510081</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1361681736319439</v>
       </c>
       <c r="E91" t="n">
-        <v>1.727847337156004</v>
+        <v>1.723213424862894</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5334719555179934</v>
+        <v>-0.5349169050713475</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01211432402693052</v>
+        <v>-0.00751818819273251</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1566047445899912</v>
       </c>
       <c r="E92" t="n">
-        <v>1.700122564353413</v>
+        <v>1.696083631288156</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3692419484397222</v>
+        <v>-0.3712960433930197</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01537569164626554</v>
+        <v>-0.01075122346788412</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1836895137097263</v>
       </c>
       <c r="E93" t="n">
-        <v>1.656380572972467</v>
+        <v>1.653240404825472</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2166769970694105</v>
+        <v>-0.2189498806805687</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03030368899268127</v>
+        <v>-0.02650715487210401</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2169907879856537</v>
       </c>
       <c r="E94" t="n">
-        <v>1.557547912345997</v>
+        <v>1.555422986532241</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.077985450234243</v>
+        <v>-0.08089266355128537</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03668633652955555</v>
+        <v>-0.03254666624053475</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2559035486353383</v>
       </c>
       <c r="E95" t="n">
-        <v>1.48783460546359</v>
+        <v>1.485347655251934</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02867795552069811</v>
+        <v>0.02582111081553736</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07187195996711113</v>
+        <v>-0.06835402723100409</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2983894218137187</v>
       </c>
       <c r="E96" t="n">
-        <v>1.403503383001663</v>
+        <v>1.401447714029244</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1108433276717153</v>
+        <v>0.1074843708668596</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1009110387359875</v>
+        <v>-0.09749541724276503</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3410244172556031</v>
       </c>
       <c r="E97" t="n">
-        <v>1.323281924465452</v>
+        <v>1.32159772400566</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1740071409903906</v>
+        <v>0.1706529062428988</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1207468277026188</v>
+        <v>-0.1169487195629202</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3789642269219475</v>
       </c>
       <c r="E98" t="n">
-        <v>1.228826611015319</v>
+        <v>1.226693815105956</v>
       </c>
       <c r="F98" t="n">
-        <v>0.207144965551134</v>
+        <v>0.203401948080681</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1412531488149242</v>
+        <v>-0.1377478082317875</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4091500951882356</v>
       </c>
       <c r="E99" t="n">
-        <v>1.142842668476026</v>
+        <v>1.140198316352241</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2278574831683297</v>
+        <v>0.2244056592353173</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1436000113247835</v>
+        <v>-0.1401607795447415</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4307712174391768</v>
       </c>
       <c r="E100" t="n">
-        <v>1.054559084000513</v>
+        <v>1.052103614171284</v>
       </c>
       <c r="F100" t="n">
-        <v>0.239851508872641</v>
+        <v>0.2363902408249008</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1580951534128415</v>
+        <v>-0.1547094382829237</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4452179345731319</v>
       </c>
       <c r="E101" t="n">
-        <v>0.963997893856478</v>
+        <v>0.9615266838360359</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2345691007015559</v>
+        <v>0.2300422217086951</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1719811501009562</v>
+        <v>-0.1683026674144765</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4600527551297262</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9027858642482156</v>
+        <v>0.9007097330272199</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2406400924524126</v>
+        <v>0.2363194099644422</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1976534019693704</v>
+        <v>-0.1935688223495951</v>
       </c>
     </row>
   </sheetData>
